--- a/data/trans_camb/P41_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,41</t>
+          <t>12,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>10,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,06</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>4,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,92</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 27,35</t>
+          <t>2,12; 29,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 22,79</t>
+          <t>-1,31; 23,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 34,18</t>
+          <t>3,26; 32,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 12,04</t>
+          <t>-1,92; 34,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 15,23</t>
+          <t>-6,75; 5,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 15,1</t>
+          <t>-3,08; 10,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 16,17</t>
+          <t>-4,92; 8,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 14,13</t>
+          <t>-11,15; -0,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 21,52</t>
+          <t>-0,49; 13,58</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 12,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 15,79</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 15,77</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>72,27%</t>
+          <t>174,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>108,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>209,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>173,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>-47,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>48,45%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>53,77%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>75,82%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 264,51</t>
+          <t>8,3; 787,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 217,23</t>
+          <t>-29,8; 760,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 329,6</t>
+          <t>22,08; 898,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 67,35</t>
+          <t>-35,83; 1419,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 78,67</t>
+          <t>-46,96; 67,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 78,05</t>
+          <t>-21,95; 125,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 87,88</t>
+          <t>-33,65; 99,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 83,74</t>
+          <t>-75,01; 5,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 114,56</t>
+          <t>-9,46; 183,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 170,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,78; 219,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; 215,6</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,46</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>9,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>-8,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,35</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 19,27</t>
+          <t>-8,66; 8,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 22,65</t>
+          <t>-1,93; 17,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 27,48</t>
+          <t>-1,02; 19,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 20,5</t>
+          <t>-16,35; -1,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 20,37</t>
+          <t>-5,72; 9,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 16,41</t>
+          <t>-7,73; 6,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 15,63</t>
+          <t>-9,22; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 18,96</t>
+          <t>-9,09; 5,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 19,43</t>
+          <t>-4,06; 7,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 9,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 9,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; -0,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>70,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>-65,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>-5,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>-16,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>-13,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-38,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 77,06</t>
+          <t>-48,7; 100,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 85,34</t>
+          <t>-17,55; 195,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 102,67</t>
+          <t>-11,47; 211,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 91,43</t>
+          <t>-90,59; -4,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-23,8; 94,88</t>
+          <t>-33,25; 107,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 74,6</t>
+          <t>-48,51; 72,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 56,91</t>
+          <t>-57,79; 58,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 70,65</t>
+          <t>-53,66; 65,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 73,05</t>
+          <t>-26,53; 77,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-14,71; 90,32</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 97,31</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-63,63; -0,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-16,8</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,72</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-9,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,4</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-7,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-6,21</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 34,06</t>
+          <t>-22,28; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-30,64; 14,58</t>
+          <t>-9,64; 14,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 12,6</t>
+          <t>-10,19; 13,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-46,01; 14,41</t>
+          <t>-8,59; 22,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 12,7</t>
+          <t>-28,4; 7,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,91; 20,81</t>
+          <t>-32,02; -0,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 15,68</t>
+          <t>-25,3; 8,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 3,58</t>
+          <t>-21,49; 13,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 8,87</t>
+          <t>-17,79; 2,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-16,49; 3,45</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 6,24</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; 10,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-35,84%</t>
+          <t>66,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>53,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,88%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,59%</t>
+          <t>-51,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-22,6%</t>
+          <t>-73,81%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-16,38%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-43,82%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>-59,01%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-51,19%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-30,07%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-11,75%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1427,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 44,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-80,3; 35,89</t>
+          <t>-100,0; 103,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,8; 65,78</t>
+          <t>-100,0; 39,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 77,39</t>
+          <t>-86,05; 128,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-77,83; 23,84</t>
+          <t>-74,29; 144,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,82; 43,47</t>
+          <t>-100,0; 79,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-88,11; 82,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-79,42; 105,25</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-73,06; 178,73</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,44</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,38</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 17,62</t>
+          <t>-0,49; 14,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 16,3</t>
+          <t>0,61; 14,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 23,33</t>
+          <t>3,43; 19,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 9,13</t>
+          <t>-4,51; 16,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 11,43</t>
+          <t>-5,51; 4,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 11,32</t>
+          <t>-4,59; 4,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 11,06</t>
+          <t>-5,71; 3,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 10,93</t>
+          <t>-8,45; 0,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 14,55</t>
+          <t>-1,35; 7,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 7,89</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,72; 10,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 7,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>58,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>77,66%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>117,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>-30,05%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>18,39%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>40,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-10,67%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 93,77</t>
+          <t>-9,91; 197,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 90,96</t>
+          <t>4,08; 222,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,89; 125,02</t>
+          <t>28,23; 292,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 36,97</t>
+          <t>-50,56; 274,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 45,3</t>
+          <t>-34,86; 39,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 47,02</t>
+          <t>-28,99; 45,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 48,72</t>
+          <t>-37,11; 35,88</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 47,58</t>
+          <t>-53,8; 5,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,04; 61,21</t>
+          <t>-11,44; 77,8</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-4,11; 82,45</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 101,73</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-42,76; 74,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
